--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.6544911575597</v>
+        <v>420.8953415126421</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.8349916510305</v>
+        <v>575.88757484956</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.0900380618989</v>
+        <v>520.9256729692049</v>
       </c>
       <c r="AD2" t="n">
-        <v>342654.4911575597</v>
+        <v>420895.3415126421</v>
       </c>
       <c r="AE2" t="n">
-        <v>468834.9916510305</v>
+        <v>575887.57484956</v>
       </c>
       <c r="AF2" t="n">
         <v>9.758389898671729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>424090.0380618989</v>
+        <v>520925.672969205</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.3929817720426</v>
+        <v>230.2682683160793</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.1898801539636</v>
+        <v>315.0632034289445</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.5029863288259</v>
+        <v>284.9940134877626</v>
       </c>
       <c r="AD3" t="n">
-        <v>181392.9817720426</v>
+        <v>230268.2683160793</v>
       </c>
       <c r="AE3" t="n">
-        <v>248189.8801539636</v>
+        <v>315063.2034289445</v>
       </c>
       <c r="AF3" t="n">
         <v>1.494571280821424e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>224502.9863288259</v>
+        <v>284994.0134877627</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.3097993828453</v>
+        <v>277.3257744757923</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.0693427809725</v>
+        <v>379.4493593874647</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.4311458560128</v>
+        <v>343.235245088045</v>
       </c>
       <c r="AD2" t="n">
-        <v>219309.7993828453</v>
+        <v>277325.7744757923</v>
       </c>
       <c r="AE2" t="n">
-        <v>300069.3427809725</v>
+        <v>379449.3593874647</v>
       </c>
       <c r="AF2" t="n">
         <v>1.398919867733563e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>271431.1458560128</v>
+        <v>343235.245088045</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.5766902775064</v>
+        <v>237.6258197593734</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.7047500020148</v>
+        <v>325.1301299059157</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.2550335106763</v>
+        <v>294.100166630795</v>
       </c>
       <c r="AD3" t="n">
-        <v>179576.6902775064</v>
+        <v>237625.8197593734</v>
       </c>
       <c r="AE3" t="n">
-        <v>245704.7500020148</v>
+        <v>325130.1299059157</v>
       </c>
       <c r="AF3" t="n">
         <v>1.570173279549153e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>222255.0335106763</v>
+        <v>294100.166630795</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.8256594088005</v>
+        <v>294.2467117791846</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.0893622785935</v>
+        <v>402.6013323050345</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.2085529664972</v>
+        <v>364.17762620436</v>
       </c>
       <c r="AD2" t="n">
-        <v>228825.6594088005</v>
+        <v>294246.7117791846</v>
       </c>
       <c r="AE2" t="n">
-        <v>313089.3622785935</v>
+        <v>402601.3323050345</v>
       </c>
       <c r="AF2" t="n">
         <v>1.700612208806038e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.09583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>283208.5529664971</v>
+        <v>364177.62620436</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.1744864437164</v>
+        <v>258.0025874068845</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.2558075441283</v>
+        <v>353.0105223607697</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.9857795961496</v>
+        <v>319.3196935601431</v>
       </c>
       <c r="AD2" t="n">
-        <v>201174.4864437164</v>
+        <v>258002.5874068845</v>
       </c>
       <c r="AE2" t="n">
-        <v>275255.8075441283</v>
+        <v>353010.5223607697</v>
       </c>
       <c r="AF2" t="n">
         <v>1.678784356458173e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>248985.7795961496</v>
+        <v>319319.6935601431</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.2253403893411</v>
+        <v>336.1679661110541</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.7882792862471</v>
+        <v>459.9598419171128</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.5460294736796</v>
+        <v>416.0619201622355</v>
       </c>
       <c r="AD2" t="n">
-        <v>262225.3403893411</v>
+        <v>336167.9661110541</v>
       </c>
       <c r="AE2" t="n">
-        <v>358788.2792862472</v>
+        <v>459959.8419171128</v>
       </c>
       <c r="AF2" t="n">
         <v>1.671536156751108e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>324546.0294736796</v>
+        <v>416061.9201622355</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.0214358182557</v>
+        <v>301.9497712912652</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.198452783484</v>
+        <v>413.1409981644645</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.6391618512743</v>
+        <v>373.7114011466799</v>
       </c>
       <c r="AD2" t="n">
-        <v>234021.4358182557</v>
+        <v>301949.7712912651</v>
       </c>
       <c r="AE2" t="n">
-        <v>320198.452783484</v>
+        <v>413140.9981644645</v>
       </c>
       <c r="AF2" t="n">
         <v>1.28935001600669e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>289639.1618512743</v>
+        <v>373711.4011466799</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.9163086658246</v>
+        <v>238.1357154400036</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.1694308638174</v>
+        <v>325.8277916711633</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.6753658832123</v>
+        <v>294.731244536342</v>
       </c>
       <c r="AD3" t="n">
-        <v>179916.3086658246</v>
+        <v>238135.7154400036</v>
       </c>
       <c r="AE3" t="n">
-        <v>246169.4308638174</v>
+        <v>325827.7916711633</v>
       </c>
       <c r="AF3" t="n">
         <v>1.550461795147453e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.80833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>222675.3658832123</v>
+        <v>294731.244536342</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.3059165065546</v>
+        <v>377.9442619670066</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.0505829418368</v>
+        <v>517.1200129473251</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.4885623944219</v>
+        <v>467.7668046941282</v>
       </c>
       <c r="AD2" t="n">
-        <v>295305.9165065546</v>
+        <v>377944.2619670067</v>
       </c>
       <c r="AE2" t="n">
-        <v>404050.5829418368</v>
+        <v>517120.0129473251</v>
       </c>
       <c r="AF2" t="n">
         <v>1.62565345531246e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>365488.5623944219</v>
+        <v>467766.8046941282</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.0991970945561</v>
+        <v>247.6298597961136</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.1021080493328</v>
+        <v>338.8180988312744</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.2783279127818</v>
+        <v>306.4817750131069</v>
       </c>
       <c r="AD2" t="n">
-        <v>190099.1970945561</v>
+        <v>247629.8597961136</v>
       </c>
       <c r="AE2" t="n">
-        <v>260102.1080493328</v>
+        <v>338818.0988312744</v>
       </c>
       <c r="AF2" t="n">
         <v>1.616817311709232e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.55</v>
       </c>
       <c r="AH2" t="n">
-        <v>235278.3279127818</v>
+        <v>306481.7750131069</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.3270641438162</v>
+        <v>246.7562416188885</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.0456416820293</v>
+        <v>337.6227758998817</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.3226892128135</v>
+        <v>305.4005320246396</v>
       </c>
       <c r="AD3" t="n">
-        <v>189327.0641438162</v>
+        <v>246756.2416188885</v>
       </c>
       <c r="AE3" t="n">
-        <v>259045.6416820293</v>
+        <v>337622.7758998817</v>
       </c>
       <c r="AF3" t="n">
         <v>1.628380092128928e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.46666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>234322.6892128135</v>
+        <v>305400.5320246397</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.3431115109986</v>
+        <v>256.2496541115775</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.3817954497394</v>
+        <v>350.6120816921726</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.4814977788378</v>
+        <v>317.1501567027236</v>
       </c>
       <c r="AD2" t="n">
-        <v>198343.1115109986</v>
+        <v>256249.6541115775</v>
       </c>
       <c r="AE2" t="n">
-        <v>271381.7954497394</v>
+        <v>350612.0816921726</v>
       </c>
       <c r="AF2" t="n">
         <v>1.502612689071808e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>245481.4977788379</v>
+        <v>317150.1567027236</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.4756423628592</v>
+        <v>237.6979401410847</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.2489329561323</v>
+        <v>325.2288081938996</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.5065786530373</v>
+        <v>294.1894272014696</v>
       </c>
       <c r="AD3" t="n">
-        <v>189475.6423628592</v>
+        <v>237697.9401410847</v>
       </c>
       <c r="AE3" t="n">
-        <v>259248.9329561323</v>
+        <v>325228.8081938996</v>
       </c>
       <c r="AF3" t="n">
         <v>1.586796226550774e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.10833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>234506.5786530373</v>
+        <v>294189.4272014696</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.3289407918517</v>
+        <v>375.6356312403265</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.5010151873767</v>
+        <v>513.9612425374818</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.3689884747742</v>
+        <v>464.9095028988381</v>
       </c>
       <c r="AD2" t="n">
-        <v>307328.9407918517</v>
+        <v>375635.6312403264</v>
       </c>
       <c r="AE2" t="n">
-        <v>420501.0151873767</v>
+        <v>513961.2425374818</v>
       </c>
       <c r="AF2" t="n">
         <v>1.066921498046217e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.01666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>380368.9884747742</v>
+        <v>464909.5028988381</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.872892155966</v>
+        <v>239.4157365978115</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.4782705965133</v>
+        <v>327.5791730898232</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.8592917887883</v>
+        <v>296.3154765704849</v>
       </c>
       <c r="AD3" t="n">
-        <v>180872.892155966</v>
+        <v>239415.7365978115</v>
       </c>
       <c r="AE3" t="n">
-        <v>247478.2705965133</v>
+        <v>327579.1730898232</v>
       </c>
       <c r="AF3" t="n">
         <v>1.511895137531972e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>223859.2917887883</v>
+        <v>296315.4765704849</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.0587810653585</v>
+        <v>257.1099131928897</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.7292502240123</v>
+        <v>351.7891261191756</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.6049147641283</v>
+        <v>318.214865661606</v>
       </c>
       <c r="AD2" t="n">
-        <v>200058.7810653585</v>
+        <v>257109.9131928897</v>
       </c>
       <c r="AE2" t="n">
-        <v>273729.2502240123</v>
+        <v>351789.1261191756</v>
       </c>
       <c r="AF2" t="n">
         <v>1.661923096052469e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>247604.9147641283</v>
+        <v>318214.865661606</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.1670433812278</v>
+        <v>280.8720917352729</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.4010412540664</v>
+        <v>384.3015871143617</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.3038190713216</v>
+        <v>347.6243830108313</v>
       </c>
       <c r="AD2" t="n">
-        <v>215167.0433812278</v>
+        <v>280872.091735273</v>
       </c>
       <c r="AE2" t="n">
-        <v>294401.0412540664</v>
+        <v>384301.5871143617</v>
       </c>
       <c r="AF2" t="n">
         <v>1.700509509169631e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.35833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>266303.8190713216</v>
+        <v>347624.3830108313</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.327300179385</v>
+        <v>309.4359177140306</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.2993910650212</v>
+        <v>423.3838739655632</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.3943263740172</v>
+        <v>382.9767112572883</v>
       </c>
       <c r="AD2" t="n">
-        <v>244327.300179385</v>
+        <v>309435.9177140305</v>
       </c>
       <c r="AE2" t="n">
-        <v>334299.3910650212</v>
+        <v>423383.8739655633</v>
       </c>
       <c r="AF2" t="n">
         <v>1.690578774537099e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>302394.3263740172</v>
+        <v>382976.7112572883</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.3524097868731</v>
+        <v>459.5799599532471</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.681820579836</v>
+        <v>628.8175764449123</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.756397703465</v>
+        <v>568.8041095000207</v>
       </c>
       <c r="AD2" t="n">
-        <v>359352.4097868731</v>
+        <v>459579.9599532471</v>
       </c>
       <c r="AE2" t="n">
-        <v>491681.820579836</v>
+        <v>628817.5764449124</v>
       </c>
       <c r="AF2" t="n">
         <v>1.527066406501501e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>444756.397703465</v>
+        <v>568804.1095000206</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.1509514849996</v>
+        <v>249.7720774118168</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.9094089233514</v>
+        <v>341.7491754810491</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.8177039314565</v>
+        <v>309.1331138212199</v>
       </c>
       <c r="AD2" t="n">
-        <v>192150.9514849996</v>
+        <v>249772.0774118167</v>
       </c>
       <c r="AE2" t="n">
-        <v>262909.4089233514</v>
+        <v>341749.1754810491</v>
       </c>
       <c r="AF2" t="n">
         <v>1.576856860722513e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.49166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>237817.7039314565</v>
+        <v>309133.1138212199</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.2807301729545</v>
+        <v>246.9018560997717</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.9822454989859</v>
+        <v>337.8220120566835</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.2653434725027</v>
+        <v>305.5807533622661</v>
       </c>
       <c r="AD3" t="n">
-        <v>189280.7301729546</v>
+        <v>246901.8560997717</v>
       </c>
       <c r="AE3" t="n">
-        <v>258982.2454989859</v>
+        <v>337822.0120566835</v>
       </c>
       <c r="AF3" t="n">
         <v>1.608435755152739e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>234265.3434725027</v>
+        <v>305580.7533622661</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.3371608421837</v>
+        <v>342.1594603483016</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.6777651967695</v>
+        <v>468.1576686585855</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.1597469043207</v>
+        <v>423.477357825224</v>
       </c>
       <c r="AD2" t="n">
-        <v>264337.1608421837</v>
+        <v>342159.4603483016</v>
       </c>
       <c r="AE2" t="n">
-        <v>361677.7651967695</v>
+        <v>468157.6686585855</v>
       </c>
       <c r="AF2" t="n">
         <v>1.171686585432379e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.975</v>
       </c>
       <c r="AH2" t="n">
-        <v>327159.7469043207</v>
+        <v>423477.3578252241</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.3995054073355</v>
+        <v>238.7833127463135</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.8305619626881</v>
+        <v>326.7138628756328</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.2733995579103</v>
+        <v>295.532750348666</v>
       </c>
       <c r="AD3" t="n">
-        <v>180399.5054073355</v>
+        <v>238783.3127463135</v>
       </c>
       <c r="AE3" t="n">
-        <v>246830.5619626881</v>
+        <v>326713.8628756328</v>
       </c>
       <c r="AF3" t="n">
         <v>1.530176852304631e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.70416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>223273.3995579103</v>
+        <v>295532.750348666</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>481.3516744959474</v>
+        <v>625.7580533821802</v>
       </c>
       <c r="AB2" t="n">
-        <v>658.6065967824918</v>
+        <v>856.1897751344461</v>
       </c>
       <c r="AC2" t="n">
-        <v>595.7501075457342</v>
+        <v>774.4762246655105</v>
       </c>
       <c r="AD2" t="n">
-        <v>481351.6744959474</v>
+        <v>625758.0533821802</v>
       </c>
       <c r="AE2" t="n">
-        <v>658606.5967824918</v>
+        <v>856189.7751344461</v>
       </c>
       <c r="AF2" t="n">
         <v>1.337075030465352e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.7125</v>
       </c>
       <c r="AH2" t="n">
-        <v>595750.1075457342</v>
+        <v>774476.2246655105</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.405603493637</v>
+        <v>269.4731930984605</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.3085203217656</v>
+        <v>368.7051111155588</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.7471457507995</v>
+        <v>333.5164127915626</v>
       </c>
       <c r="AD2" t="n">
-        <v>203405.6034936371</v>
+        <v>269473.1930984605</v>
       </c>
       <c r="AE2" t="n">
-        <v>278308.5203217656</v>
+        <v>368705.1111155588</v>
       </c>
       <c r="AF2" t="n">
         <v>1.687521969032071e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>251747.1457507994</v>
+        <v>333516.4127915626</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.6810829063847</v>
+        <v>247.0107706011171</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.5300257711808</v>
+        <v>337.9710336823928</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.7608443643339</v>
+        <v>305.7155525731709</v>
       </c>
       <c r="AD2" t="n">
-        <v>189681.0829063847</v>
+        <v>247010.7706011171</v>
       </c>
       <c r="AE2" t="n">
-        <v>259530.0257711808</v>
+        <v>337971.0336823929</v>
       </c>
       <c r="AF2" t="n">
         <v>1.643625747748624e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>234760.8443643339</v>
+        <v>305715.5525731709</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.1300981763735</v>
+        <v>247.4597858711058</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.1443882727348</v>
+        <v>338.5853961839468</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.316572971003</v>
+        <v>306.27128117984</v>
       </c>
       <c r="AD3" t="n">
-        <v>190130.0981763735</v>
+        <v>247459.7858711058</v>
       </c>
       <c r="AE3" t="n">
-        <v>260144.3882727348</v>
+        <v>338585.3961839468</v>
       </c>
       <c r="AF3" t="n">
         <v>1.643070296765128e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.7375</v>
       </c>
       <c r="AH3" t="n">
-        <v>235316.572971003</v>
+        <v>306271.28117984</v>
       </c>
     </row>
   </sheetData>
